--- a/Systems Engineering/Trade Study.xlsx
+++ b/Systems Engineering/Trade Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\RC-Plane\Systems Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC21AA36-2BE8-4EAE-B1BA-797BB9E7CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623414EE-D084-4571-8B4B-82C022353FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80F8A860-C18D-40B3-A31D-9A87D1134BC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80F8A860-C18D-40B3-A31D-9A87D1134BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Opt. #4 C130 Style, High-Wing, Two Engine</t>
   </si>
   <si>
-    <t>Opt. #4 C130 Style, High-Wing, Four Engine</t>
-  </si>
-  <si>
     <t>Expected Ease of Designing</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Trainer 4E</t>
+  </si>
+  <si>
+    <t>Opt. #5 C130 Style, High-Wing, Four Engine</t>
   </si>
 </sst>
 </file>
@@ -246,24 +246,24 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -582,763 +582,763 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65EA39A-9A44-4864-AE39-86D0D202E785}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" customWidth="1"/>
+    <col min="14" max="14" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="N1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <f>$B3*(C3/5)</f>
         <v>6</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
         <f>$B3*(E3/5)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
         <f>$B3*(G3/5)</f>
         <v>12</v>
       </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
         <f>$B3*(I3/5)</f>
         <v>9</v>
       </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
         <f>$B3*(K3/5)</f>
         <v>6</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="3">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2">
+        <v>12</v>
+      </c>
+      <c r="S3" s="2">
+        <v>9</v>
+      </c>
+      <c r="T3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4">
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <f>$B4*(C4/5)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F11" si="0">$B4*(E4/5)</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H11" si="1">$B4*(G4/5)</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J11" si="2">$B4*(I4/5)</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L11" si="3">$B4*(K4/5)</f>
+        <v>6</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2">
+        <v>8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
         <v>15</v>
       </c>
-      <c r="P3" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3">
-        <v>12</v>
-      </c>
-      <c r="S3" s="3">
-        <v>9</v>
-      </c>
-      <c r="T3" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <f>$B4*(C4/5)</f>
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F11" si="0">$B4*(E4/5)</f>
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H11" si="1">$B4*(G4/5)</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J11" si="2">$B4*(I4/5)</f>
-        <v>6</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L11" si="3">$B4*(K4/5)</f>
-        <v>6</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="4">
-        <v>10</v>
-      </c>
-      <c r="P4" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3">
-        <v>8</v>
-      </c>
-      <c r="S4" s="3">
-        <v>6</v>
-      </c>
-      <c r="T4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D11" si="4">$B5*(C5/5)</f>
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="N5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3">
         <v>15</v>
       </c>
-      <c r="P5" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>6</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="P5" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2">
         <v>9</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>9</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2">
+        <v>8</v>
+      </c>
+      <c r="S7" s="2">
+        <v>8</v>
+      </c>
+      <c r="T7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="4">
-        <v>10</v>
-      </c>
-      <c r="P6" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>6</v>
-      </c>
-      <c r="R6" s="3">
-        <v>8</v>
-      </c>
-      <c r="S6" s="3">
-        <v>6</v>
-      </c>
-      <c r="T6" s="3">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>10</v>
-      </c>
-      <c r="P7" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>8</v>
-      </c>
-      <c r="R7" s="3">
-        <v>8</v>
-      </c>
-      <c r="S7" s="3">
-        <v>8</v>
-      </c>
-      <c r="T7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>9</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>12</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>12</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="2">
         <v>15</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="3">
+        <v>10</v>
+      </c>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2">
+        <v>8</v>
+      </c>
+      <c r="S10" s="2">
+        <v>6</v>
+      </c>
+      <c r="T10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="3">
         <v>10</v>
       </c>
-      <c r="P10" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>6</v>
-      </c>
-      <c r="R10" s="3">
-        <v>8</v>
-      </c>
-      <c r="S10" s="3">
-        <v>6</v>
-      </c>
-      <c r="T10" s="3">
-        <v>4</v>
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2">
+        <v>4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>6</v>
+      </c>
+      <c r="T11" s="2">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K11" s="2">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="4">
-        <v>10</v>
-      </c>
-      <c r="P11" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>6</v>
-      </c>
-      <c r="R11" s="3">
-        <v>4</v>
-      </c>
-      <c r="S11" s="3">
-        <v>6</v>
-      </c>
-      <c r="T11" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f>SUM(B3:B11)</f>
         <v>100</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
         <f>SUM(D3:D11)</f>
         <v>57</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
         <f>SUM(F3:F11)</f>
         <v>60</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3">
+      <c r="G12" s="1"/>
+      <c r="H12" s="2">
         <f>SUM(H3:H11)</f>
         <v>71</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3">
+      <c r="I12" s="1"/>
+      <c r="J12" s="2">
         <f>SUM(J3:J11)</f>
         <v>69</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3">
+      <c r="K12" s="1"/>
+      <c r="L12" s="2">
         <f>SUM(L3:L11)</f>
         <v>56</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <f>SUM(O3:O11)</f>
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>57</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>60</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <v>71</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="2">
         <v>69</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G13" s="7"/>
-      <c r="J13" s="7"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="G13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1352,7 +1352,7 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12">
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1364,7 +1364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 F12 H12 J12 L12">
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1373,18 +1373,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1399,9 +1387,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:T12">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1409,18 +1395,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:T12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1436,6 +1410,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:T12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>